--- a/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_10_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.59073480978284</v>
+        <v>90.13839479943107</v>
       </c>
       <c r="D2" t="n">
-        <v>2.224326891498618</v>
+        <v>2.266838175680705</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.96845942057558</v>
+        <v>89.04029924465476</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47847331163946</v>
+        <v>2.105690640786107</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01856373417857</v>
+        <v>87.90353849554843</v>
       </c>
       <c r="D4" t="n">
-        <v>2.426249386469052</v>
+        <v>2.009711723214898</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.15168359577585</v>
+        <v>86.78033881031467</v>
       </c>
       <c r="D5" t="n">
-        <v>2.529775708535419</v>
+        <v>2.539544480284843</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.11129428318982</v>
+        <v>85.50455382674471</v>
       </c>
       <c r="D6" t="n">
-        <v>2.159266541955271</v>
+        <v>2.575499305048251</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.68161127638409</v>
+        <v>84.985680993305</v>
       </c>
       <c r="D7" t="n">
-        <v>2.268819157944513</v>
+        <v>2.669239792100791</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.60038149598176</v>
+        <v>83.90096548349807</v>
       </c>
       <c r="D8" t="n">
-        <v>2.598633108717385</v>
+        <v>2.539935677449568</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.88553384041707</v>
+        <v>83.05043712191778</v>
       </c>
       <c r="D9" t="n">
-        <v>2.532094027401657</v>
+        <v>2.438370308361534</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.97519402641778</v>
+        <v>82.02019827999602</v>
       </c>
       <c r="D10" t="n">
-        <v>2.641366450310176</v>
+        <v>2.615691141255749</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.02275218506954</v>
+        <v>80.49512966441048</v>
       </c>
       <c r="D11" t="n">
-        <v>2.973935785946132</v>
+        <v>2.383549225504141</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.95714978435063</v>
+        <v>79.89305311139918</v>
       </c>
       <c r="D12" t="n">
-        <v>2.63610107888708</v>
+        <v>2.407280179832645</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.4826205607805</v>
+        <v>78.69397035368952</v>
       </c>
       <c r="D13" t="n">
-        <v>2.860920980097086</v>
+        <v>3.000667973822669</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.35246904120763</v>
+        <v>77.83855702113888</v>
       </c>
       <c r="D14" t="n">
-        <v>2.636007846884605</v>
+        <v>2.716547800165714</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.2226644759252</v>
+        <v>76.83278553275346</v>
       </c>
       <c r="D15" t="n">
-        <v>2.8213829559869</v>
+        <v>2.643573006138641</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02052938110204</v>
+        <v>75.82646015029891</v>
       </c>
       <c r="D16" t="n">
-        <v>2.595189837468192</v>
+        <v>2.456938819575749</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.20838749575846</v>
+        <v>74.89746985201509</v>
       </c>
       <c r="D17" t="n">
-        <v>2.74801658308548</v>
+        <v>2.823494888968923</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.89694968917209</v>
+        <v>73.78627020714498</v>
       </c>
       <c r="D18" t="n">
-        <v>2.610377752371107</v>
+        <v>2.812084556393895</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.29176926229445</v>
+        <v>73.18337036488782</v>
       </c>
       <c r="D19" t="n">
-        <v>2.946163898402258</v>
+        <v>2.728544520059379</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.11169376893913</v>
+        <v>71.82857766899184</v>
       </c>
       <c r="D20" t="n">
-        <v>2.606144626483527</v>
+        <v>2.336296863194216</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.07881281409568</v>
+        <v>71.13254455367461</v>
       </c>
       <c r="D21" t="n">
-        <v>2.614388264698216</v>
+        <v>2.416528981490273</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.64560518864658</v>
+        <v>69.97096470655231</v>
       </c>
       <c r="D22" t="n">
-        <v>2.391579725759438</v>
+        <v>2.856375464171851</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.73555867170251</v>
+        <v>69.65505650244008</v>
       </c>
       <c r="D23" t="n">
-        <v>2.969224235435928</v>
+        <v>2.690101268614358</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.91930684868295</v>
+        <v>67.69119153542405</v>
       </c>
       <c r="D24" t="n">
-        <v>2.833125972205643</v>
+        <v>3.004422721527054</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.2302356324211</v>
+        <v>66.77328437848355</v>
       </c>
       <c r="D25" t="n">
-        <v>2.727787162499847</v>
+        <v>3.179101670467883</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.94473333357118</v>
+        <v>65.90180311023718</v>
       </c>
       <c r="D26" t="n">
-        <v>2.628984729759027</v>
+        <v>2.977772594124596</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.03563690755834</v>
+        <v>64.44888903314542</v>
       </c>
       <c r="D27" t="n">
-        <v>3.42092211827521</v>
+        <v>2.896184134870567</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.88003668589691</v>
+        <v>63.76766528590558</v>
       </c>
       <c r="D28" t="n">
-        <v>3.094796375978946</v>
+        <v>3.402525678400016</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.78239768664238</v>
+        <v>62.54422751336452</v>
       </c>
       <c r="D29" t="n">
-        <v>2.765314524808392</v>
+        <v>2.939685902697396</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.5604638015669</v>
+        <v>62.10493107189051</v>
       </c>
       <c r="D30" t="n">
-        <v>3.021643012694504</v>
+        <v>3.042542961045813</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.05055640746193</v>
+        <v>60.73390393851246</v>
       </c>
       <c r="D31" t="n">
-        <v>3.084732617788907</v>
+        <v>3.318652378933819</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.70606216803387</v>
+        <v>60.06539888129237</v>
       </c>
       <c r="D32" t="n">
-        <v>3.165134559027409</v>
+        <v>2.632255017823801</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.09868839985519</v>
+        <v>58.57781360568493</v>
       </c>
       <c r="D33" t="n">
-        <v>3.03866017161558</v>
+        <v>3.243756317118363</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.59094819414753</v>
+        <v>57.7021204648587</v>
       </c>
       <c r="D34" t="n">
-        <v>3.350062450145538</v>
+        <v>3.09263585616699</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.73809857551428</v>
+        <v>56.84649876077106</v>
       </c>
       <c r="D35" t="n">
-        <v>3.211876051480314</v>
+        <v>3.657293917460881</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.23806754802568</v>
+        <v>55.26094156295262</v>
       </c>
       <c r="D36" t="n">
-        <v>2.7484163646442</v>
+        <v>3.084738847936695</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.95888134287492</v>
+        <v>54.77053241647687</v>
       </c>
       <c r="D37" t="n">
-        <v>3.610489356606931</v>
+        <v>3.247665413798904</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.4786821978465</v>
+        <v>54.36829613605031</v>
       </c>
       <c r="D38" t="n">
-        <v>3.307563781655011</v>
+        <v>3.649946872482177</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.37525326862449</v>
+        <v>53.22143838415194</v>
       </c>
       <c r="D39" t="n">
-        <v>3.526822595752508</v>
+        <v>3.799600222971243</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.8301450384646</v>
+        <v>51.98143136369981</v>
       </c>
       <c r="D40" t="n">
-        <v>3.38388208747362</v>
+        <v>3.171137495291018</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.16196007535093</v>
+        <v>50.97081824863549</v>
       </c>
       <c r="D41" t="n">
-        <v>3.504773922601084</v>
+        <v>3.200245984609519</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.85100528066585</v>
+        <v>49.60774393619054</v>
       </c>
       <c r="D42" t="n">
-        <v>3.090582516047717</v>
+        <v>3.349807071025735</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.34250771225366</v>
+        <v>50.00727183986891</v>
       </c>
       <c r="D43" t="n">
-        <v>3.484393606659419</v>
+        <v>2.893007022946369</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.7405549554792</v>
+        <v>47.71107734419946</v>
       </c>
       <c r="D44" t="n">
-        <v>3.397088238632823</v>
+        <v>3.322830441178733</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.81317471917307</v>
+        <v>46.88748469039088</v>
       </c>
       <c r="D45" t="n">
-        <v>3.782954717572369</v>
+        <v>3.46218636801474</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.68511551463284</v>
+        <v>45.96368933058859</v>
       </c>
       <c r="D46" t="n">
-        <v>3.177457751737343</v>
+        <v>3.400341157503088</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.63870146298778</v>
+        <v>45.01463916844861</v>
       </c>
       <c r="D47" t="n">
-        <v>3.477891339533226</v>
+        <v>3.498747303079398</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.13012356191898</v>
+        <v>43.72720729664261</v>
       </c>
       <c r="D48" t="n">
-        <v>3.768370876576022</v>
+        <v>3.539542101143143</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.91567630975746</v>
+        <v>42.78510186307869</v>
       </c>
       <c r="D49" t="n">
-        <v>4.035579659696801</v>
+        <v>3.68553659400648</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.11093328934619</v>
+        <v>41.15625635584583</v>
       </c>
       <c r="D50" t="n">
-        <v>3.643313878073537</v>
+        <v>3.195903224475815</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.33170665439064</v>
+        <v>40.61665406798679</v>
       </c>
       <c r="D51" t="n">
-        <v>3.567189019392254</v>
+        <v>3.694826076475221</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.25745996232553</v>
+        <v>39.4696784951259</v>
       </c>
       <c r="D52" t="n">
-        <v>3.938277766060125</v>
+        <v>3.630054112333363</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.20294546491925</v>
+        <v>38.70359067495956</v>
       </c>
       <c r="D53" t="n">
-        <v>3.950368756276311</v>
+        <v>3.955848496213675</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.83258860791335</v>
+        <v>37.99912847043925</v>
       </c>
       <c r="D54" t="n">
-        <v>3.836417691381456</v>
+        <v>3.891940974961834</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.19910751760578</v>
+        <v>37.1719633087396</v>
       </c>
       <c r="D55" t="n">
-        <v>3.249729533867459</v>
+        <v>3.693172510495872</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.08270267315422</v>
+        <v>36.05952993738313</v>
       </c>
       <c r="D56" t="n">
-        <v>3.708306513534486</v>
+        <v>3.807199761423631</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.95670083404505</v>
+        <v>35.05530462595865</v>
       </c>
       <c r="D57" t="n">
-        <v>3.655864557318707</v>
+        <v>3.753530832021195</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.90333606884093</v>
+        <v>33.9603846463761</v>
       </c>
       <c r="D58" t="n">
-        <v>3.933124272725092</v>
+        <v>3.521833944884351</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.88246618537243</v>
+        <v>32.69096017402484</v>
       </c>
       <c r="D59" t="n">
-        <v>3.877781821323527</v>
+        <v>4.248163734782787</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.36279744339144</v>
+        <v>31.86131579514292</v>
       </c>
       <c r="D60" t="n">
-        <v>3.924588259039259</v>
+        <v>4.160596793370512</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.90532686383881</v>
+        <v>31.06284905566562</v>
       </c>
       <c r="D61" t="n">
-        <v>3.764468486925318</v>
+        <v>3.999907476014966</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.76450322163217</v>
+        <v>29.67705739121821</v>
       </c>
       <c r="D62" t="n">
-        <v>4.0046887711007</v>
+        <v>3.657336657402508</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.10278476241256</v>
+        <v>29.14838585864069</v>
       </c>
       <c r="D63" t="n">
-        <v>4.389337766267253</v>
+        <v>3.730488020831348</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.16117327123166</v>
+        <v>28.44486756443446</v>
       </c>
       <c r="D64" t="n">
-        <v>3.788318440652963</v>
+        <v>3.486529610477701</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.37544150676857</v>
+        <v>26.54694970503975</v>
       </c>
       <c r="D65" t="n">
-        <v>3.820246431772668</v>
+        <v>3.77192576416059</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89293330945949</v>
+        <v>26.25635922249567</v>
       </c>
       <c r="D66" t="n">
-        <v>4.142247082580687</v>
+        <v>3.919024683480338</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.73871172542255</v>
+        <v>25.18117789289363</v>
       </c>
       <c r="D67" t="n">
-        <v>4.413777218820511</v>
+        <v>3.660002380322564</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.27151757009129</v>
+        <v>23.89360173499905</v>
       </c>
       <c r="D68" t="n">
-        <v>3.902330186195528</v>
+        <v>4.160098867399065</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.17365830289338</v>
+        <v>22.87136461736293</v>
       </c>
       <c r="D69" t="n">
-        <v>3.703755940757151</v>
+        <v>3.983321347346584</v>
       </c>
     </row>
   </sheetData>
